--- a/REGULAR/OJT/NEW DONE/SUSA, NANETTE B..xlsx
+++ b/REGULAR/OJT/NEW DONE/SUSA, NANETTE B..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B08171-468A-4A6E-A332-DB57CE194994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="296">
   <si>
     <t>PERIOD</t>
   </si>
@@ -920,12 +919,15 @@
   </si>
   <si>
     <t>5 - Single (including living common law)</t>
+  </si>
+  <si>
+    <t>5/1-15/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1794,7 +1796,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1839,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1903,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1963,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2029,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2092,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2190,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2249,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2314,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2357,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2432,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2618,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2684,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2742,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2808,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2864,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2939,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2982,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3048,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3104,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,7 +3202,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3265,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,25 +3331,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K596" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K596" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3359,13 +3361,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3374,14 +3376,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3685,7 +3687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3695,7 +3697,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3703,34 +3705,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3852" topLeftCell="A472" activePane="bottomLeft"/>
+      <pane ySplit="3855" topLeftCell="A472" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B480" sqref="B480"/>
+      <selection pane="bottomLeft" activeCell="E481" sqref="E481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3755,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3775,7 +3777,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3797,7 +3799,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3805,7 +3807,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3818,7 +3820,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3835,7 +3837,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3870,7 +3872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3879,7 +3881,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>185.45999999999998</v>
+        <v>175.45999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3894,7 +3896,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3916,7 +3918,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>288</v>
       </c>
@@ -3936,7 +3938,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34790</v>
       </c>
@@ -3956,7 +3958,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34820</v>
       </c>
@@ -3976,7 +3978,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34851</v>
       </c>
@@ -3996,7 +3998,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34881</v>
       </c>
@@ -4016,7 +4018,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34912</v>
       </c>
@@ -4036,7 +4038,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34943</v>
       </c>
@@ -4056,7 +4058,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34973</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35004</v>
       </c>
@@ -4096,7 +4098,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35034</v>
       </c>
@@ -4122,7 +4124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>47</v>
       </c>
@@ -4144,7 +4146,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35065</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35096</v>
       </c>
@@ -4196,7 +4198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35125</v>
       </c>
@@ -4216,7 +4218,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35156</v>
       </c>
@@ -4236,7 +4238,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35186</v>
       </c>
@@ -4256,7 +4258,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35217</v>
       </c>
@@ -4276,7 +4278,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35247</v>
       </c>
@@ -4296,7 +4298,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35278</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35309</v>
       </c>
@@ -4342,7 +4344,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35339</v>
       </c>
@@ -4362,7 +4364,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35370</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35400</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -4436,7 +4438,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>55</v>
@@ -4456,7 +4458,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>46</v>
       </c>
@@ -4478,7 +4480,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35431</v>
       </c>
@@ -4498,7 +4500,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35462</v>
       </c>
@@ -4518,7 +4520,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35490</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35521</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>60</v>
@@ -4586,7 +4588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35551</v>
       </c>
@@ -4606,7 +4608,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35582</v>
       </c>
@@ -4626,7 +4628,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>35612</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35643</v>
       </c>
@@ -4678,7 +4680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35674</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35704</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>50</v>
@@ -4750,7 +4752,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35735</v>
       </c>
@@ -4774,7 +4776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35765</v>
       </c>
@@ -4794,7 +4796,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>45</v>
       </c>
@@ -4816,7 +4818,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35796</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>35824</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>72</v>
@@ -4862,7 +4864,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35827</v>
       </c>
@@ -4882,7 +4884,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>35855</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>35857</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -4930,7 +4932,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35886</v>
       </c>
@@ -4956,7 +4958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35916</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35947</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35977</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36008</v>
       </c>
@@ -5054,7 +5056,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36039</v>
       </c>
@@ -5074,7 +5076,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36069</v>
       </c>
@@ -5094,7 +5096,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36100</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>36104</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>54</v>
@@ -5142,7 +5144,7 @@
         <v>36125</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>79</v>
@@ -5162,7 +5164,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36130</v>
       </c>
@@ -5188,7 +5190,7 @@
         <v>36151</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>44</v>
       </c>
@@ -5210,7 +5212,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36161</v>
       </c>
@@ -5230,7 +5232,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36192</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>36196</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36220</v>
       </c>
@@ -5280,7 +5282,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36251</v>
       </c>
@@ -5306,7 +5308,7 @@
         <v>36272</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36281</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>50</v>
@@ -5354,7 +5356,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>82</v>
@@ -5376,7 +5378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36312</v>
       </c>
@@ -5396,7 +5398,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36342</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>83</v>
@@ -5442,7 +5444,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36373</v>
       </c>
@@ -5466,7 +5468,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36404</v>
       </c>
@@ -5490,7 +5492,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36434</v>
       </c>
@@ -5510,7 +5512,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -5534,7 +5536,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -5554,7 +5556,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -5578,7 +5580,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>93</v>
@@ -5598,7 +5600,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -5620,7 +5622,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>36526</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36557</v>
       </c>
@@ -5666,7 +5668,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36586</v>
       </c>
@@ -5686,7 +5688,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36617</v>
       </c>
@@ -5712,7 +5714,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36647</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36678</v>
       </c>
@@ -5754,7 +5756,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>36708</v>
       </c>
@@ -5778,7 +5780,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36739</v>
       </c>
@@ -5804,7 +5806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36770</v>
       </c>
@@ -5830,7 +5832,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36800</v>
       </c>
@@ -5854,7 +5856,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>36831</v>
       </c>
@@ -5878,7 +5880,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36861</v>
       </c>
@@ -5904,7 +5906,7 @@
         <v>36867</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>54</v>
@@ -5926,7 +5928,7 @@
         <v>36887</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>101</v>
@@ -5946,7 +5948,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>90</v>
       </c>
@@ -5968,7 +5970,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36892</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>36902</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>102</v>
@@ -6014,7 +6016,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36923</v>
       </c>
@@ -6034,7 +6036,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36951</v>
       </c>
@@ -6058,7 +6060,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36982</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37012</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37043</v>
       </c>
@@ -6136,7 +6138,7 @@
         <v>37055</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37073</v>
       </c>
@@ -6160,7 +6162,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37104</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -6208,7 +6210,7 @@
         <v>37130</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>48</v>
@@ -6230,7 +6232,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>108</v>
@@ -6250,7 +6252,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37135</v>
       </c>
@@ -6274,7 +6276,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37165</v>
       </c>
@@ -6294,7 +6296,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37196</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37226</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>89</v>
       </c>
@@ -6364,7 +6366,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37257</v>
       </c>
@@ -6384,7 +6386,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37288</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>37308</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37316</v>
       </c>
@@ -6430,7 +6432,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37347</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>37372</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37377</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37408</v>
       </c>
@@ -6498,7 +6500,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37438</v>
       </c>
@@ -6518,7 +6520,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>37469</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37500</v>
       </c>
@@ -6564,7 +6566,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>37530</v>
       </c>
@@ -6584,7 +6586,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37561</v>
       </c>
@@ -6608,7 +6610,7 @@
         <v>37566</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6628,7 +6630,7 @@
         <v>37603</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37591</v>
       </c>
@@ -6648,7 +6650,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>113</v>
       </c>
@@ -6670,7 +6672,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37622</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>37624</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37653</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>37681</v>
       </c>
@@ -6738,7 +6740,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>37712</v>
       </c>
@@ -6758,7 +6760,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37742</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>37773</v>
       </c>
@@ -6800,7 +6802,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37803</v>
       </c>
@@ -6820,7 +6822,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37834</v>
       </c>
@@ -6844,7 +6846,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>37865</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>37882</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37895</v>
       </c>
@@ -6890,7 +6892,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>37926</v>
       </c>
@@ -6916,7 +6918,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>50</v>
@@ -6938,7 +6940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37956</v>
       </c>
@@ -6962,7 +6964,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>112</v>
       </c>
@@ -6984,7 +6986,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37987</v>
       </c>
@@ -7004,7 +7006,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38018</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>38016</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7052,7 +7054,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38078</v>
       </c>
@@ -7096,7 +7098,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38108</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38139</v>
       </c>
@@ -7144,7 +7146,7 @@
         <v>38154</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38169</v>
       </c>
@@ -7164,7 +7166,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38200</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>38210</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>131</v>
@@ -7212,7 +7214,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38231</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>132</v>
@@ -7258,7 +7260,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38261</v>
       </c>
@@ -7282,7 +7284,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38292</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>54</v>
@@ -7330,7 +7332,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>79</v>
@@ -7350,7 +7352,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38322</v>
       </c>
@@ -7380,7 +7382,7 @@
         <v>38338</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>134</v>
@@ -7400,7 +7402,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>111</v>
       </c>
@@ -7422,7 +7424,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="50"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38353</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>54</v>
@@ -7468,7 +7470,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>139</v>
@@ -7488,7 +7490,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38384</v>
       </c>
@@ -7514,7 +7516,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>160</v>
@@ -7534,7 +7536,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38412</v>
       </c>
@@ -7560,7 +7562,7 @@
         <v>38418</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>161</v>
@@ -7580,7 +7582,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38443</v>
       </c>
@@ -7606,7 +7608,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -7628,7 +7630,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>54</v>
@@ -7650,7 +7652,7 @@
         <v>38476</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -7670,7 +7672,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>162</v>
@@ -7692,7 +7694,7 @@
         <v>38503</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>38473</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>123</v>
@@ -7738,7 +7740,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>163</v>
@@ -7758,7 +7760,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>38504</v>
       </c>
@@ -7782,7 +7784,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>38534</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>38538</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>123</v>
@@ -7830,7 +7832,7 @@
         <v>38583</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>122</v>
@@ -7850,7 +7852,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38565</v>
       </c>
@@ -7874,7 +7876,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38596</v>
       </c>
@@ -7898,7 +7900,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38626</v>
       </c>
@@ -7924,7 +7926,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38657</v>
       </c>
@@ -7950,7 +7952,7 @@
         <v>38673</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>141</v>
@@ -7972,7 +7974,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>142</v>
@@ -7992,7 +7994,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>123</v>
@@ -8040,7 +8042,7 @@
         <v>38708</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>48</v>
@@ -8060,7 +8062,7 @@
         <v>38707</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>110</v>
       </c>
@@ -8082,7 +8084,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -8106,7 +8108,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>150</v>
@@ -8126,7 +8128,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38749</v>
       </c>
@@ -8150,7 +8152,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38777</v>
       </c>
@@ -8176,7 +8178,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>117</v>
@@ -8198,7 +8200,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>152</v>
@@ -8218,7 +8220,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>138</v>
@@ -8238,7 +8240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>138</v>
@@ -8258,7 +8260,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38808</v>
       </c>
@@ -8282,7 +8284,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8304,7 +8306,7 @@
         <v>38498</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38838</v>
       </c>
@@ -8328,7 +8330,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38869</v>
       </c>
@@ -8352,7 +8354,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38899</v>
       </c>
@@ -8378,7 +8380,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>60</v>
@@ -8398,7 +8400,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>94</v>
@@ -8420,7 +8422,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>171</v>
@@ -8440,7 +8442,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38930</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>48</v>
@@ -8488,7 +8490,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>48</v>
@@ -8510,7 +8512,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>172</v>
@@ -8530,7 +8532,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38961</v>
       </c>
@@ -8556,7 +8558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>173</v>
@@ -8576,7 +8578,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38991</v>
       </c>
@@ -8600,7 +8602,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39022</v>
       </c>
@@ -8624,7 +8626,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39052</v>
       </c>
@@ -8648,7 +8650,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="48" t="s">
         <v>149</v>
       </c>
@@ -8670,7 +8672,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39083</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>39144</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39114</v>
       </c>
@@ -8716,7 +8718,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39142</v>
       </c>
@@ -8736,7 +8738,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39173</v>
       </c>
@@ -8760,7 +8762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39203</v>
       </c>
@@ -8780,7 +8782,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39234</v>
       </c>
@@ -8800,7 +8802,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39264</v>
       </c>
@@ -8820,7 +8822,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39295</v>
       </c>
@@ -8840,7 +8842,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39326</v>
       </c>
@@ -8860,7 +8862,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39356</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>117</v>
@@ -8908,7 +8910,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39387</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39417</v>
       </c>
@@ -8954,7 +8956,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="48" t="s">
         <v>148</v>
       </c>
@@ -8976,7 +8978,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>39448</v>
       </c>
@@ -8996,7 +8998,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39479</v>
       </c>
@@ -9016,7 +9018,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>39508</v>
       </c>
@@ -9036,7 +9038,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39539</v>
       </c>
@@ -9062,7 +9064,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39569</v>
       </c>
@@ -9082,7 +9084,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39600</v>
       </c>
@@ -9102,7 +9104,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39630</v>
       </c>
@@ -9122,7 +9124,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39661</v>
       </c>
@@ -9142,7 +9144,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39692</v>
       </c>
@@ -9162,7 +9164,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39722</v>
       </c>
@@ -9182,7 +9184,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>39753</v>
       </c>
@@ -9208,7 +9210,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>138</v>
@@ -9228,7 +9230,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>183</v>
@@ -9248,7 +9250,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>54</v>
@@ -9270,7 +9272,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>39783</v>
       </c>
@@ -9294,7 +9296,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="48" t="s">
         <v>147</v>
       </c>
@@ -9316,7 +9318,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39814</v>
       </c>
@@ -9340,7 +9342,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39845</v>
       </c>
@@ -9360,7 +9362,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39873</v>
       </c>
@@ -9380,7 +9382,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>39904</v>
       </c>
@@ -9404,7 +9406,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>138</v>
@@ -9424,7 +9426,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>39934</v>
       </c>
@@ -9444,7 +9446,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39965</v>
       </c>
@@ -9464,7 +9466,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>39995</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>40006</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>40026</v>
       </c>
@@ -9510,7 +9512,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40057</v>
       </c>
@@ -9530,7 +9532,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>40087</v>
       </c>
@@ -9556,7 +9558,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40118</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40148</v>
       </c>
@@ -9606,7 +9608,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="48" t="s">
         <v>146</v>
       </c>
@@ -9628,7 +9630,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40179</v>
       </c>
@@ -9648,7 +9650,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40210</v>
       </c>
@@ -9668,7 +9670,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40238</v>
       </c>
@@ -9688,7 +9690,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40269</v>
       </c>
@@ -9708,7 +9710,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40299</v>
       </c>
@@ -9728,7 +9730,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>40330</v>
       </c>
@@ -9748,7 +9750,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40360</v>
       </c>
@@ -9772,7 +9774,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40391</v>
       </c>
@@ -9796,7 +9798,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40422</v>
       </c>
@@ -9816,7 +9818,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>40452</v>
       </c>
@@ -9842,7 +9844,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>189</v>
@@ -9864,7 +9866,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40483</v>
       </c>
@@ -9884,7 +9886,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40513</v>
       </c>
@@ -9904,7 +9906,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>145</v>
       </c>
@@ -9922,7 +9924,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40544</v>
       </c>
@@ -9952,7 +9954,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>40575</v>
       </c>
@@ -9972,7 +9974,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>40603</v>
       </c>
@@ -9992,7 +9994,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40634</v>
       </c>
@@ -10016,7 +10018,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40664</v>
       </c>
@@ -10036,7 +10038,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>40695</v>
       </c>
@@ -10056,7 +10058,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>40725</v>
       </c>
@@ -10076,7 +10078,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40756</v>
       </c>
@@ -10102,7 +10104,7 @@
         <v>40780</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>123</v>
@@ -10124,7 +10126,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>40787</v>
       </c>
@@ -10144,7 +10146,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40817</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10190,7 +10192,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>117</v>
@@ -10212,7 +10214,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40848</v>
       </c>
@@ -10238,7 +10240,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>40878</v>
       </c>
@@ -10258,7 +10260,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="48" t="s">
         <v>144</v>
       </c>
@@ -10280,7 +10282,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40909</v>
       </c>
@@ -10300,7 +10302,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40940</v>
       </c>
@@ -10320,7 +10322,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>40969</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41000</v>
       </c>
@@ -10364,7 +10366,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>41030</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41061</v>
       </c>
@@ -10408,7 +10410,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>41091</v>
       </c>
@@ -10434,7 +10436,7 @@
         <v>41250</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>41122</v>
       </c>
@@ -10460,7 +10462,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41153</v>
       </c>
@@ -10480,7 +10482,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>41183</v>
       </c>
@@ -10500,7 +10502,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>41214</v>
       </c>
@@ -10524,7 +10526,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>41244</v>
       </c>
@@ -10550,7 +10552,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>123</v>
@@ -10572,7 +10574,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="48" t="s">
         <v>200</v>
       </c>
@@ -10594,7 +10596,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>41275</v>
       </c>
@@ -10614,7 +10616,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41306</v>
       </c>
@@ -10634,7 +10636,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41334</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>41365</v>
       </c>
@@ -10684,7 +10686,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>41395</v>
       </c>
@@ -10710,7 +10712,7 @@
         <v>41369</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41426</v>
       </c>
@@ -10730,7 +10732,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41456</v>
       </c>
@@ -10754,7 +10756,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>41487</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>41518</v>
       </c>
@@ -10796,7 +10798,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41548</v>
       </c>
@@ -10822,7 +10824,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41579</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>41609</v>
       </c>
@@ -10870,7 +10872,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="48" t="s">
         <v>199</v>
       </c>
@@ -10892,7 +10894,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>41640</v>
       </c>
@@ -10912,7 +10914,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>41671</v>
       </c>
@@ -10938,7 +10940,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>210</v>
@@ -10960,7 +10962,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>41699</v>
       </c>
@@ -10980,7 +10982,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41730</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>48</v>
@@ -11028,7 +11030,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>41760</v>
       </c>
@@ -11054,7 +11056,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>41791</v>
       </c>
@@ -11080,7 +11082,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>138</v>
@@ -11100,7 +11102,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>41821</v>
       </c>
@@ -11120,7 +11122,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41852</v>
       </c>
@@ -11140,7 +11142,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41883</v>
       </c>
@@ -11160,7 +11162,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41913</v>
       </c>
@@ -11180,7 +11182,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41944</v>
       </c>
@@ -11200,7 +11202,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>41974</v>
       </c>
@@ -11224,7 +11226,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>198</v>
       </c>
@@ -11246,7 +11248,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>42005</v>
       </c>
@@ -11270,7 +11272,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>123</v>
@@ -11292,7 +11294,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>42036</v>
       </c>
@@ -11312,7 +11314,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>42064</v>
       </c>
@@ -11338,7 +11340,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>123</v>
@@ -11360,7 +11362,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>42095</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>138</v>
@@ -11406,7 +11408,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>131</v>
@@ -11428,7 +11430,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>42125</v>
       </c>
@@ -11454,7 +11456,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>42156</v>
       </c>
@@ -11474,7 +11476,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>42186</v>
       </c>
@@ -11494,7 +11496,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>42217</v>
       </c>
@@ -11520,7 +11522,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>42248</v>
       </c>
@@ -11540,7 +11542,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>42278</v>
       </c>
@@ -11566,7 +11568,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>60</v>
@@ -11588,7 +11590,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42309</v>
       </c>
@@ -11614,7 +11616,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>54</v>
@@ -11636,7 +11638,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>42339</v>
       </c>
@@ -11656,7 +11658,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="48" t="s">
         <v>197</v>
       </c>
@@ -11678,7 +11680,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>42370</v>
       </c>
@@ -11702,7 +11704,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>138</v>
@@ -11722,7 +11724,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>42401</v>
       </c>
@@ -11742,7 +11744,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>42430</v>
       </c>
@@ -11766,7 +11768,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>119</v>
@@ -11788,7 +11790,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>123</v>
@@ -11810,7 +11812,7 @@
         <v>42465</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>42461</v>
       </c>
@@ -11830,7 +11832,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>42491</v>
       </c>
@@ -11850,7 +11852,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42522</v>
       </c>
@@ -11870,7 +11872,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>42552</v>
       </c>
@@ -11890,7 +11892,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>42583</v>
       </c>
@@ -11916,7 +11918,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>131</v>
@@ -11938,7 +11940,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>51</v>
@@ -11960,7 +11962,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>70</v>
@@ -11982,7 +11984,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>42614</v>
       </c>
@@ -12002,7 +12004,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>42644</v>
       </c>
@@ -12028,7 +12030,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>42675</v>
       </c>
@@ -12048,7 +12050,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>42705</v>
       </c>
@@ -12068,7 +12070,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>196</v>
       </c>
@@ -12090,7 +12092,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>42736</v>
       </c>
@@ -12114,7 +12116,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>42767</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>42795</v>
       </c>
@@ -12160,7 +12162,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>42826</v>
       </c>
@@ -12184,7 +12186,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>42856</v>
       </c>
@@ -12210,7 +12212,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>42887</v>
       </c>
@@ -12230,7 +12232,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42917</v>
       </c>
@@ -12256,7 +12258,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12278,7 +12280,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>48</v>
@@ -12300,7 +12302,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>42948</v>
       </c>
@@ -12326,7 +12328,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>81</v>
@@ -12348,7 +12350,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>81</v>
@@ -12370,7 +12372,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>42979</v>
       </c>
@@ -12392,7 +12394,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43009</v>
       </c>
@@ -12418,7 +12420,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>213</v>
@@ -12440,7 +12442,7 @@
         <v>42927</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>48</v>
@@ -12460,7 +12462,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43040</v>
       </c>
@@ -12480,7 +12482,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43070</v>
       </c>
@@ -12500,7 +12502,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
         <v>246</v>
       </c>
@@ -12522,7 +12524,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43101</v>
       </c>
@@ -12548,7 +12550,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43132</v>
       </c>
@@ -12574,7 +12576,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>50</v>
@@ -12596,7 +12598,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>138</v>
@@ -12616,7 +12618,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43160</v>
       </c>
@@ -12636,7 +12638,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>43191</v>
       </c>
@@ -12656,7 +12658,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>43221</v>
       </c>
@@ -12682,7 +12684,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>138</v>
@@ -12702,7 +12704,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>50</v>
@@ -12724,7 +12726,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>43252</v>
       </c>
@@ -12750,7 +12752,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -12770,7 +12772,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43282</v>
       </c>
@@ -12794,7 +12796,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43313</v>
       </c>
@@ -12820,7 +12822,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43344</v>
       </c>
@@ -12840,7 +12842,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43374</v>
       </c>
@@ -12860,7 +12862,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>43405</v>
       </c>
@@ -12886,7 +12888,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>43435</v>
       </c>
@@ -12912,7 +12914,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
         <v>245</v>
       </c>
@@ -12934,7 +12936,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43466</v>
       </c>
@@ -12960,7 +12962,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43497</v>
       </c>
@@ -12980,7 +12982,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>43525</v>
       </c>
@@ -13006,7 +13008,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>43556</v>
       </c>
@@ -13032,7 +13034,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -13054,7 +13056,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43586</v>
       </c>
@@ -13080,7 +13082,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>43617</v>
       </c>
@@ -13100,7 +13102,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>43647</v>
       </c>
@@ -13120,7 +13122,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43678</v>
       </c>
@@ -13140,7 +13142,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>43709</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>54</v>
@@ -13186,7 +13188,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43739</v>
       </c>
@@ -13206,7 +13208,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>43770</v>
       </c>
@@ -13226,7 +13228,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>43800</v>
       </c>
@@ -13252,7 +13254,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
         <v>244</v>
       </c>
@@ -13274,7 +13276,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>43831</v>
       </c>
@@ -13300,7 +13302,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>43862</v>
       </c>
@@ -13320,7 +13322,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>43891</v>
       </c>
@@ -13340,7 +13342,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43922</v>
       </c>
@@ -13366,7 +13368,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>43952</v>
       </c>
@@ -13390,7 +13392,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>43983</v>
       </c>
@@ -13410,7 +13412,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44013</v>
       </c>
@@ -13430,7 +13432,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>44044</v>
       </c>
@@ -13450,7 +13452,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44075</v>
       </c>
@@ -13470,7 +13472,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44105</v>
       </c>
@@ -13490,7 +13492,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44136</v>
       </c>
@@ -13510,7 +13512,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44166</v>
       </c>
@@ -13536,7 +13538,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>138</v>
@@ -13556,7 +13558,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>123</v>
@@ -13576,7 +13578,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
         <v>243</v>
       </c>
@@ -13598,7 +13600,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>44197</v>
       </c>
@@ -13618,7 +13620,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>44228</v>
       </c>
@@ -13638,7 +13640,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44256</v>
       </c>
@@ -13658,7 +13660,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44287</v>
       </c>
@@ -13682,7 +13684,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>44317</v>
       </c>
@@ -13702,7 +13704,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>44348</v>
       </c>
@@ -13722,7 +13724,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>44378</v>
       </c>
@@ -13742,7 +13744,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44409</v>
       </c>
@@ -13768,7 +13770,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>44440</v>
       </c>
@@ -13788,7 +13790,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44470</v>
       </c>
@@ -13808,7 +13810,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>44501</v>
       </c>
@@ -13832,7 +13834,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>51</v>
@@ -13854,7 +13856,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>44531</v>
       </c>
@@ -13878,7 +13880,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="48" t="s">
         <v>242</v>
       </c>
@@ -13900,7 +13902,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>44562</v>
       </c>
@@ -13924,7 +13926,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>60</v>
@@ -13944,7 +13946,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>44593</v>
       </c>
@@ -13970,7 +13972,7 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>44621</v>
       </c>
@@ -13990,7 +13992,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>44652</v>
       </c>
@@ -14010,7 +14012,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44682</v>
       </c>
@@ -14034,7 +14036,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>131</v>
@@ -14056,7 +14058,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>290</v>
@@ -14078,7 +14080,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>44713</v>
       </c>
@@ -14098,7 +14100,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44743</v>
       </c>
@@ -14124,7 +14126,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>54</v>
@@ -14146,7 +14148,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>54</v>
@@ -14168,7 +14170,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -14190,7 +14192,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>44774</v>
       </c>
@@ -14216,7 +14218,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>48</v>
@@ -14238,7 +14240,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44805</v>
       </c>
@@ -14264,7 +14266,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>44835</v>
       </c>
@@ -14284,7 +14286,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44866</v>
       </c>
@@ -14310,7 +14312,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>131</v>
@@ -14332,7 +14334,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>54</v>
@@ -14354,7 +14356,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44896</v>
       </c>
@@ -14380,7 +14382,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
         <v>289</v>
       </c>
@@ -14398,7 +14400,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>44927</v>
       </c>
@@ -14422,7 +14424,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44958</v>
       </c>
@@ -14442,13 +14444,17 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44986</v>
       </c>
-      <c r="B481" s="20"/>
+      <c r="B481" s="20" t="s">
+        <v>264</v>
+      </c>
       <c r="C481" s="13"/>
-      <c r="D481" s="39"/>
+      <c r="D481" s="39">
+        <v>10</v>
+      </c>
       <c r="E481" s="9"/>
       <c r="F481" s="20"/>
       <c r="G481" s="13" t="str">
@@ -14458,9 +14464,11 @@
       <c r="H481" s="39"/>
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
-      <c r="K481" s="20"/>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K481" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>45017</v>
       </c>
@@ -14478,7 +14486,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>45047</v>
       </c>
@@ -14496,7 +14504,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>45078</v>
       </c>
@@ -14514,7 +14522,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>45108</v>
       </c>
@@ -14532,7 +14540,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>45139</v>
       </c>
@@ -14550,7 +14558,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>45170</v>
       </c>
@@ -14568,7 +14576,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>45200</v>
       </c>
@@ -14586,7 +14594,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>45231</v>
       </c>
@@ -14604,7 +14612,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>45261</v>
       </c>
@@ -14622,7 +14630,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>45292</v>
       </c>
@@ -14640,7 +14648,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>45323</v>
       </c>
@@ -14658,7 +14666,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>45352</v>
       </c>
@@ -14676,7 +14684,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>45383</v>
       </c>
@@ -14694,7 +14702,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>45413</v>
       </c>
@@ -14712,7 +14720,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>45444</v>
       </c>
@@ -14730,7 +14738,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>45474</v>
       </c>
@@ -14748,7 +14756,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>45505</v>
       </c>
@@ -14766,7 +14774,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>45536</v>
       </c>
@@ -14784,7 +14792,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>45566</v>
       </c>
@@ -14802,7 +14810,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>45597</v>
       </c>
@@ -14820,7 +14828,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>45627</v>
       </c>
@@ -14838,7 +14846,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>45658</v>
       </c>
@@ -14856,7 +14864,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>45689</v>
       </c>
@@ -14874,7 +14882,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>45717</v>
       </c>
@@ -14892,7 +14900,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>45748</v>
       </c>
@@ -14910,7 +14918,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>45778</v>
       </c>
@@ -14928,7 +14936,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>45809</v>
       </c>
@@ -14946,7 +14954,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>45839</v>
       </c>
@@ -14964,7 +14972,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>45870</v>
       </c>
@@ -14982,7 +14990,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>45901</v>
       </c>
@@ -15000,7 +15008,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>45931</v>
       </c>
@@ -15018,7 +15026,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>45962</v>
       </c>
@@ -15036,7 +15044,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>45992</v>
       </c>
@@ -15054,7 +15062,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>46023</v>
       </c>
@@ -15072,7 +15080,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>46054</v>
       </c>
@@ -15090,7 +15098,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>46082</v>
       </c>
@@ -15108,7 +15116,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>46113</v>
       </c>
@@ -15126,7 +15134,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>46143</v>
       </c>
@@ -15144,7 +15152,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>46174</v>
       </c>
@@ -15162,7 +15170,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>46204</v>
       </c>
@@ -15180,7 +15188,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>46235</v>
       </c>
@@ -15198,7 +15206,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>46266</v>
       </c>
@@ -15216,7 +15224,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>46296</v>
       </c>
@@ -15234,7 +15242,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>46327</v>
       </c>
@@ -15252,7 +15260,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>46357</v>
       </c>
@@ -15270,7 +15278,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>46388</v>
       </c>
@@ -15288,7 +15296,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>46419</v>
       </c>
@@ -15306,7 +15314,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>46447</v>
       </c>
@@ -15324,7 +15332,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>46478</v>
       </c>
@@ -15342,7 +15350,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>46508</v>
       </c>
@@ -15360,7 +15368,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>46539</v>
       </c>
@@ -15378,7 +15386,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>46569</v>
       </c>
@@ -15396,7 +15404,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>46600</v>
       </c>
@@ -15414,7 +15422,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>46631</v>
       </c>
@@ -15432,7 +15440,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>46661</v>
       </c>
@@ -15450,7 +15458,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>46692</v>
       </c>
@@ -15468,7 +15476,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>46722</v>
       </c>
@@ -15486,7 +15494,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>46753</v>
       </c>
@@ -15504,7 +15512,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>46784</v>
       </c>
@@ -15522,7 +15530,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>46813</v>
       </c>
@@ -15540,7 +15548,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>46844</v>
       </c>
@@ -15558,7 +15566,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>46874</v>
       </c>
@@ -15576,7 +15584,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>46905</v>
       </c>
@@ -15594,7 +15602,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>46935</v>
       </c>
@@ -15612,7 +15620,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>46966</v>
       </c>
@@ -15630,7 +15638,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>46997</v>
       </c>
@@ -15648,7 +15656,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>47027</v>
       </c>
@@ -15666,7 +15674,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>47058</v>
       </c>
@@ -15684,7 +15692,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>47088</v>
       </c>
@@ -15702,7 +15710,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>47119</v>
       </c>
@@ -15720,7 +15728,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>47150</v>
       </c>
@@ -15738,7 +15746,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>47178</v>
       </c>
@@ -15756,7 +15764,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>47209</v>
       </c>
@@ -15774,7 +15782,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>47239</v>
       </c>
@@ -15792,7 +15800,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>47270</v>
       </c>
@@ -15810,7 +15818,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>47300</v>
       </c>
@@ -15828,7 +15836,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>47331</v>
       </c>
@@ -15846,7 +15854,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>47362</v>
       </c>
@@ -15864,7 +15872,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>47392</v>
       </c>
@@ -15882,7 +15890,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15898,7 +15906,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15914,7 +15922,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15930,7 +15938,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15946,7 +15954,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15962,7 +15970,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15978,7 +15986,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15994,7 +16002,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16010,7 +16018,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16026,7 +16034,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16042,7 +16050,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16058,7 +16066,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16074,7 +16082,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16090,7 +16098,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16106,7 +16114,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16122,7 +16130,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16138,7 +16146,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16154,7 +16162,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16170,7 +16178,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16186,7 +16194,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16202,7 +16210,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16218,7 +16226,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16234,7 +16242,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16250,7 +16258,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16266,7 +16274,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16282,7 +16290,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16298,7 +16306,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16314,7 +16322,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16330,7 +16338,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16346,7 +16354,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16362,7 +16370,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16378,7 +16386,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16394,7 +16402,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16410,7 +16418,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16426,7 +16434,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16442,7 +16450,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="41"/>
       <c r="B596" s="15"/>
       <c r="C596" s="42"/>
@@ -16473,10 +16481,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16499,7 +16507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16507,21 +16515,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16534,7 +16542,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16563,7 +16571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -16591,17 +16599,17 @@
         <v>0.45799999999999985</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16622,7 +16630,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16649,7 +16657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16675,7 +16683,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16701,7 +16709,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16727,7 +16735,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16753,7 +16761,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16779,7 +16787,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16805,7 +16813,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16831,7 +16839,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16851,7 +16859,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16871,7 +16879,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16891,7 +16899,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16912,7 +16920,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16933,7 +16941,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16954,7 +16962,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16975,7 +16983,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16996,7 +17004,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17017,7 +17025,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17038,7 +17046,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17059,7 +17067,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17080,7 +17088,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17101,7 +17109,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17122,7 +17130,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17143,7 +17151,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17164,7 +17172,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17185,7 +17193,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17206,7 +17214,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17227,7 +17235,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17248,7 +17256,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17269,7 +17277,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17290,7 +17298,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17311,7 +17319,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17320,7 +17328,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17329,7 +17337,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17338,7 +17346,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17347,7 +17355,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17356,7 +17364,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17365,7 +17373,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17374,7 +17382,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17383,7 +17391,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17392,7 +17400,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17401,7 +17409,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17410,7 +17418,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17419,7 +17427,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17428,7 +17436,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17437,7 +17445,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17446,7 +17454,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17455,7 +17463,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17464,7 +17472,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17473,7 +17481,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17482,7 +17490,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17491,7 +17499,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17500,7 +17508,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17509,7 +17517,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17518,7 +17526,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17527,7 +17535,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17536,7 +17544,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17545,7 +17553,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17554,7 +17562,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17563,7 +17571,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17572,7 +17580,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/SUSA, NANETTE B..xlsx
+++ b/REGULAR/OJT/NEW DONE/SUSA, NANETTE B..xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="297">
   <si>
     <t>PERIOD</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>5/1-15/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1799,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1842,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1906,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1966,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2032,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2095,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2193,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2252,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2317,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2360,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2435,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2621,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2687,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2745,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2811,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2867,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2942,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2985,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +3051,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3107,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3205,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3268,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,7 +3714,7 @@
   </sheetPr>
   <dimension ref="A2:K596"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane ySplit="3855" topLeftCell="A472" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
       <selection pane="bottomLeft" activeCell="E481" sqref="E481"/>
@@ -16511,8 +16514,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16610,6 +16613,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16631,6 +16637,10 @@
       <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>480.66799999999995</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17597,7 +17607,7 @@
     <mergeCell ref="I6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="2">
     <tablePart r:id="rId3"/>

--- a/REGULAR/OJT/NEW DONE/SUSA, NANETTE B..xlsx
+++ b/REGULAR/OJT/NEW DONE/SUSA, NANETTE B..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1EFD9-F488-439C-9A6B-D14E8C15D74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="297">
   <si>
     <t>PERIOD</t>
   </si>
@@ -930,7 +931,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1799,7 +1800,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1843,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1907,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1967,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2033,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2096,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2194,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2253,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2318,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2361,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2436,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2622,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2688,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2746,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2812,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2868,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2943,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2986,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3052,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3108,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3206,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3269,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,25 +3335,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K596" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3364,13 +3365,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3379,14 +3380,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3690,7 +3691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3700,7 +3701,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3708,34 +3709,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K596"/>
+  <dimension ref="A2:K597"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3855" topLeftCell="A472" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="3852" topLeftCell="A478" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="E481" sqref="E481"/>
+      <selection pane="bottomLeft" activeCell="E483" sqref="E483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3758,7 +3759,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3780,7 +3781,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3802,7 +3803,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3810,7 +3811,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3823,7 +3824,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3840,7 +3841,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3884,7 +3885,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>175.45999999999998</v>
+        <v>176.70999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3894,12 +3895,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>305.20799999999997</v>
+        <v>306.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3921,7 +3922,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>288</v>
       </c>
@@ -3941,7 +3942,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34790</v>
       </c>
@@ -3961,7 +3962,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>34820</v>
       </c>
@@ -3981,7 +3982,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>34851</v>
       </c>
@@ -4001,7 +4002,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>34881</v>
       </c>
@@ -4021,7 +4022,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>34912</v>
       </c>
@@ -4041,7 +4042,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>34943</v>
       </c>
@@ -4061,7 +4062,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>34973</v>
       </c>
@@ -4081,7 +4082,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35004</v>
       </c>
@@ -4101,7 +4102,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35034</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>47</v>
       </c>
@@ -4149,7 +4150,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35065</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>35096</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>35125</v>
       </c>
@@ -4221,7 +4222,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35156</v>
       </c>
@@ -4241,7 +4242,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>35186</v>
       </c>
@@ -4261,7 +4262,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>35217</v>
       </c>
@@ -4281,7 +4282,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>35247</v>
       </c>
@@ -4301,7 +4302,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35278</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>35309</v>
       </c>
@@ -4347,7 +4348,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>35339</v>
       </c>
@@ -4367,7 +4368,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>35370</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>35400</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -4441,7 +4442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>55</v>
@@ -4461,7 +4462,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>46</v>
       </c>
@@ -4483,7 +4484,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>35431</v>
       </c>
@@ -4503,7 +4504,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35462</v>
       </c>
@@ -4523,7 +4524,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>35490</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>35521</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>60</v>
@@ -4591,7 +4592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>35551</v>
       </c>
@@ -4611,7 +4612,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>35582</v>
       </c>
@@ -4631,7 +4632,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>35612</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>35643</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>35674</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>35704</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>50</v>
@@ -4755,7 +4756,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>35735</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>35765</v>
       </c>
@@ -4799,7 +4800,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
         <v>45</v>
       </c>
@@ -4821,7 +4822,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>35796</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>35824</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>72</v>
@@ -4867,7 +4868,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>35827</v>
       </c>
@@ -4887,7 +4888,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>35855</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>35857</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -4935,7 +4936,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>35886</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>35916</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>35947</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>35977</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36008</v>
       </c>
@@ -5059,7 +5060,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36039</v>
       </c>
@@ -5079,7 +5080,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>36069</v>
       </c>
@@ -5099,7 +5100,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36100</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>36104</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>54</v>
@@ -5147,7 +5148,7 @@
         <v>36125</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>79</v>
@@ -5167,7 +5168,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36130</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>36151</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>44</v>
       </c>
@@ -5215,7 +5216,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>36161</v>
       </c>
@@ -5235,7 +5236,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36192</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>36196</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>36220</v>
       </c>
@@ -5285,7 +5286,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36251</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>36272</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36281</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>50</v>
@@ -5359,7 +5360,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>82</v>
@@ -5381,7 +5382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36312</v>
       </c>
@@ -5401,7 +5402,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>36342</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>83</v>
@@ -5447,7 +5448,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36373</v>
       </c>
@@ -5471,7 +5472,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36404</v>
       </c>
@@ -5495,7 +5496,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>36434</v>
       </c>
@@ -5515,7 +5516,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -5539,7 +5540,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -5559,7 +5560,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -5583,7 +5584,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>93</v>
@@ -5603,7 +5604,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -5625,7 +5626,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>36526</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>36557</v>
       </c>
@@ -5671,7 +5672,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>36586</v>
       </c>
@@ -5691,7 +5692,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>36617</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>36647</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>36678</v>
       </c>
@@ -5759,7 +5760,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>36708</v>
       </c>
@@ -5783,7 +5784,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>36739</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>36770</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>36800</v>
       </c>
@@ -5859,7 +5860,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>36831</v>
       </c>
@@ -5883,7 +5884,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>36861</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>36867</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>54</v>
@@ -5931,7 +5932,7 @@
         <v>36887</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>101</v>
@@ -5951,7 +5952,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>90</v>
       </c>
@@ -5973,7 +5974,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>36892</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>36902</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>102</v>
@@ -6019,7 +6020,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36923</v>
       </c>
@@ -6039,7 +6040,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>36951</v>
       </c>
@@ -6063,7 +6064,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36982</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37012</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37043</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>37055</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37073</v>
       </c>
@@ -6165,7 +6166,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37104</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -6213,7 +6214,7 @@
         <v>37130</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>48</v>
@@ -6235,7 +6236,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>108</v>
@@ -6255,7 +6256,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37135</v>
       </c>
@@ -6279,7 +6280,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37165</v>
       </c>
@@ -6299,7 +6300,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37196</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37226</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>89</v>
       </c>
@@ -6369,7 +6370,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37257</v>
       </c>
@@ -6389,7 +6390,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>37288</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>37308</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37316</v>
       </c>
@@ -6435,7 +6436,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37347</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>37372</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>37377</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37408</v>
       </c>
@@ -6503,7 +6504,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37438</v>
       </c>
@@ -6523,7 +6524,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>37469</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>37500</v>
       </c>
@@ -6569,7 +6570,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>37530</v>
       </c>
@@ -6589,7 +6590,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37561</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>37566</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6633,7 +6634,7 @@
         <v>37603</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37591</v>
       </c>
@@ -6653,7 +6654,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>113</v>
       </c>
@@ -6675,7 +6676,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37622</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>37624</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37653</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>37681</v>
       </c>
@@ -6743,7 +6744,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>37712</v>
       </c>
@@ -6763,7 +6764,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>37742</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>37773</v>
       </c>
@@ -6805,7 +6806,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37803</v>
       </c>
@@ -6825,7 +6826,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37834</v>
       </c>
@@ -6849,7 +6850,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>37865</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>37882</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>37895</v>
       </c>
@@ -6895,7 +6896,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>37926</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>50</v>
@@ -6943,7 +6944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>37956</v>
       </c>
@@ -6967,7 +6968,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>112</v>
       </c>
@@ -6989,7 +6990,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>37987</v>
       </c>
@@ -7009,7 +7010,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38018</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>38016</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7057,7 +7058,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38078</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38108</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38139</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>38154</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38169</v>
       </c>
@@ -7169,7 +7170,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38200</v>
       </c>
@@ -7195,7 +7196,7 @@
         <v>38210</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>131</v>
@@ -7217,7 +7218,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>38231</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>132</v>
@@ -7263,7 +7264,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38261</v>
       </c>
@@ -7287,7 +7288,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38292</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>54</v>
@@ -7335,7 +7336,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>79</v>
@@ -7355,7 +7356,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38322</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>38338</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>134</v>
@@ -7405,7 +7406,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="48" t="s">
         <v>111</v>
       </c>
@@ -7427,7 +7428,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="50"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38353</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>54</v>
@@ -7473,7 +7474,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>139</v>
@@ -7493,7 +7494,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>38384</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>160</v>
@@ -7539,7 +7540,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38412</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>38418</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>161</v>
@@ -7585,7 +7586,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38443</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -7633,7 +7634,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>54</v>
@@ -7655,7 +7656,7 @@
         <v>38476</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -7675,7 +7676,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>162</v>
@@ -7697,7 +7698,7 @@
         <v>38503</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>38473</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>123</v>
@@ -7743,7 +7744,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>163</v>
@@ -7763,7 +7764,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>38504</v>
       </c>
@@ -7787,7 +7788,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>38534</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>38538</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>123</v>
@@ -7835,7 +7836,7 @@
         <v>38583</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>122</v>
@@ -7855,7 +7856,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>38565</v>
       </c>
@@ -7879,7 +7880,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38596</v>
       </c>
@@ -7903,7 +7904,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38626</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>38657</v>
       </c>
@@ -7955,7 +7956,7 @@
         <v>38673</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>141</v>
@@ -7977,7 +7978,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>142</v>
@@ -7997,7 +7998,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>123</v>
@@ -8045,7 +8046,7 @@
         <v>38708</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>48</v>
@@ -8065,7 +8066,7 @@
         <v>38707</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="48" t="s">
         <v>110</v>
       </c>
@@ -8087,7 +8088,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>150</v>
@@ -8131,7 +8132,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38749</v>
       </c>
@@ -8155,7 +8156,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>38777</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>117</v>
@@ -8203,7 +8204,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>152</v>
@@ -8223,7 +8224,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>138</v>
@@ -8243,7 +8244,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>138</v>
@@ -8263,7 +8264,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>38808</v>
       </c>
@@ -8287,7 +8288,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8309,7 +8310,7 @@
         <v>38498</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>38838</v>
       </c>
@@ -8333,7 +8334,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>38869</v>
       </c>
@@ -8357,7 +8358,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38899</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>60</v>
@@ -8403,7 +8404,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>94</v>
@@ -8425,7 +8426,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>171</v>
@@ -8445,7 +8446,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>38930</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>48</v>
@@ -8493,7 +8494,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>48</v>
@@ -8515,7 +8516,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>172</v>
@@ -8535,7 +8536,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>38961</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>173</v>
@@ -8581,7 +8582,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38991</v>
       </c>
@@ -8605,7 +8606,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>39022</v>
       </c>
@@ -8629,7 +8630,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>39052</v>
       </c>
@@ -8653,7 +8654,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="48" t="s">
         <v>149</v>
       </c>
@@ -8675,7 +8676,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>39083</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>39144</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39114</v>
       </c>
@@ -8721,7 +8722,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>39142</v>
       </c>
@@ -8741,7 +8742,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39173</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>39203</v>
       </c>
@@ -8785,7 +8786,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39234</v>
       </c>
@@ -8805,7 +8806,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39264</v>
       </c>
@@ -8825,7 +8826,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39295</v>
       </c>
@@ -8845,7 +8846,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>39326</v>
       </c>
@@ -8865,7 +8866,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39356</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>117</v>
@@ -8913,7 +8914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>39387</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39417</v>
       </c>
@@ -8959,7 +8960,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="48" t="s">
         <v>148</v>
       </c>
@@ -8981,7 +8982,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>39448</v>
       </c>
@@ -9001,7 +9002,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>39479</v>
       </c>
@@ -9021,7 +9022,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>39508</v>
       </c>
@@ -9041,7 +9042,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39539</v>
       </c>
@@ -9067,7 +9068,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39569</v>
       </c>
@@ -9087,7 +9088,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39600</v>
       </c>
@@ -9107,7 +9108,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>39630</v>
       </c>
@@ -9127,7 +9128,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39661</v>
       </c>
@@ -9147,7 +9148,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>39692</v>
       </c>
@@ -9167,7 +9168,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39722</v>
       </c>
@@ -9187,7 +9188,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>39753</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>138</v>
@@ -9233,7 +9234,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>183</v>
@@ -9253,7 +9254,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>54</v>
@@ -9275,7 +9276,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>39783</v>
       </c>
@@ -9299,7 +9300,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="48" t="s">
         <v>147</v>
       </c>
@@ -9321,7 +9322,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39814</v>
       </c>
@@ -9345,7 +9346,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>39845</v>
       </c>
@@ -9365,7 +9366,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39873</v>
       </c>
@@ -9385,7 +9386,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>39904</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>138</v>
@@ -9429,7 +9430,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>39934</v>
       </c>
@@ -9449,7 +9450,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>39965</v>
       </c>
@@ -9469,7 +9470,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>39995</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>40006</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>40026</v>
       </c>
@@ -9515,7 +9516,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>40057</v>
       </c>
@@ -9535,7 +9536,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>40087</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>40118</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>40148</v>
       </c>
@@ -9611,7 +9612,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="48" t="s">
         <v>146</v>
       </c>
@@ -9633,7 +9634,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>40179</v>
       </c>
@@ -9653,7 +9654,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40210</v>
       </c>
@@ -9673,7 +9674,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>40238</v>
       </c>
@@ -9693,7 +9694,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>40269</v>
       </c>
@@ -9713,7 +9714,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>40299</v>
       </c>
@@ -9733,7 +9734,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>40330</v>
       </c>
@@ -9753,7 +9754,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>40360</v>
       </c>
@@ -9777,7 +9778,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>40391</v>
       </c>
@@ -9801,7 +9802,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>40422</v>
       </c>
@@ -9821,7 +9822,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>40452</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>189</v>
@@ -9869,7 +9870,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>40483</v>
       </c>
@@ -9889,7 +9890,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>40513</v>
       </c>
@@ -9909,7 +9910,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="48" t="s">
         <v>145</v>
       </c>
@@ -9927,7 +9928,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>40544</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>40575</v>
       </c>
@@ -9977,7 +9978,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>40603</v>
       </c>
@@ -9997,7 +9998,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>40634</v>
       </c>
@@ -10021,7 +10022,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>40664</v>
       </c>
@@ -10041,7 +10042,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>40695</v>
       </c>
@@ -10061,7 +10062,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>40725</v>
       </c>
@@ -10081,7 +10082,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>40756</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>40780</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>123</v>
@@ -10129,7 +10130,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>40787</v>
       </c>
@@ -10149,7 +10150,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>40817</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10195,7 +10196,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>117</v>
@@ -10217,7 +10218,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40848</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>40878</v>
       </c>
@@ -10263,7 +10264,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="48" t="s">
         <v>144</v>
       </c>
@@ -10285,7 +10286,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40909</v>
       </c>
@@ -10305,7 +10306,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40940</v>
       </c>
@@ -10325,7 +10326,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>40969</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>41000</v>
       </c>
@@ -10369,7 +10370,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>41030</v>
       </c>
@@ -10393,7 +10394,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>41061</v>
       </c>
@@ -10413,7 +10414,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>41091</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>41250</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>41122</v>
       </c>
@@ -10465,7 +10466,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>41153</v>
       </c>
@@ -10485,7 +10486,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>41183</v>
       </c>
@@ -10505,7 +10506,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>41214</v>
       </c>
@@ -10529,7 +10530,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>41244</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>123</v>
@@ -10577,7 +10578,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="48" t="s">
         <v>200</v>
       </c>
@@ -10599,7 +10600,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>41275</v>
       </c>
@@ -10619,7 +10620,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41306</v>
       </c>
@@ -10639,7 +10640,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>41334</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>41365</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>41395</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>41369</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>41426</v>
       </c>
@@ -10735,7 +10736,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>41456</v>
       </c>
@@ -10759,7 +10760,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>41487</v>
       </c>
@@ -10781,7 +10782,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>41518</v>
       </c>
@@ -10801,7 +10802,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>41548</v>
       </c>
@@ -10827,7 +10828,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>41579</v>
       </c>
@@ -10851,7 +10852,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>41609</v>
       </c>
@@ -10875,7 +10876,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="48" t="s">
         <v>199</v>
       </c>
@@ -10897,7 +10898,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>41640</v>
       </c>
@@ -10917,7 +10918,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>41671</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>210</v>
@@ -10965,7 +10966,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>41699</v>
       </c>
@@ -10985,7 +10986,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>41730</v>
       </c>
@@ -11011,7 +11012,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>48</v>
@@ -11033,7 +11034,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>41760</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>41791</v>
       </c>
@@ -11085,7 +11086,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>138</v>
@@ -11105,7 +11106,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>41821</v>
       </c>
@@ -11125,7 +11126,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>41852</v>
       </c>
@@ -11145,7 +11146,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>41883</v>
       </c>
@@ -11165,7 +11166,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>41913</v>
       </c>
@@ -11185,7 +11186,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>41944</v>
       </c>
@@ -11205,7 +11206,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>41974</v>
       </c>
@@ -11229,7 +11230,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>198</v>
       </c>
@@ -11251,7 +11252,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>42005</v>
       </c>
@@ -11275,7 +11276,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>123</v>
@@ -11297,7 +11298,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>42036</v>
       </c>
@@ -11317,7 +11318,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>42064</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>123</v>
@@ -11365,7 +11366,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>42095</v>
       </c>
@@ -11391,7 +11392,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>138</v>
@@ -11411,7 +11412,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>131</v>
@@ -11433,7 +11434,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>42125</v>
       </c>
@@ -11459,7 +11460,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>42156</v>
       </c>
@@ -11479,7 +11480,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>42186</v>
       </c>
@@ -11499,7 +11500,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>42217</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>42248</v>
       </c>
@@ -11545,7 +11546,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>42278</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>60</v>
@@ -11593,7 +11594,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>42309</v>
       </c>
@@ -11619,7 +11620,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>54</v>
@@ -11641,7 +11642,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>42339</v>
       </c>
@@ -11661,7 +11662,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="48" t="s">
         <v>197</v>
       </c>
@@ -11683,7 +11684,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>42370</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>138</v>
@@ -11727,7 +11728,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>42401</v>
       </c>
@@ -11747,7 +11748,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>42430</v>
       </c>
@@ -11771,7 +11772,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>119</v>
@@ -11793,7 +11794,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>123</v>
@@ -11815,7 +11816,7 @@
         <v>42465</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>42461</v>
       </c>
@@ -11835,7 +11836,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>42491</v>
       </c>
@@ -11855,7 +11856,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>42522</v>
       </c>
@@ -11875,7 +11876,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>42552</v>
       </c>
@@ -11895,7 +11896,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>42583</v>
       </c>
@@ -11921,7 +11922,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>131</v>
@@ -11943,7 +11944,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>51</v>
@@ -11965,7 +11966,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>70</v>
@@ -11987,7 +11988,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>42614</v>
       </c>
@@ -12007,7 +12008,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>42644</v>
       </c>
@@ -12033,7 +12034,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>42675</v>
       </c>
@@ -12053,7 +12054,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>42705</v>
       </c>
@@ -12073,7 +12074,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="48" t="s">
         <v>196</v>
       </c>
@@ -12095,7 +12096,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>42736</v>
       </c>
@@ -12119,7 +12120,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>42767</v>
       </c>
@@ -12145,7 +12146,7 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>42795</v>
       </c>
@@ -12165,7 +12166,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>42826</v>
       </c>
@@ -12189,7 +12190,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>42856</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>42887</v>
       </c>
@@ -12235,7 +12236,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>42917</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12283,7 +12284,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>48</v>
@@ -12305,7 +12306,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>42948</v>
       </c>
@@ -12331,7 +12332,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>81</v>
@@ -12353,7 +12354,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>81</v>
@@ -12375,7 +12376,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>42979</v>
       </c>
@@ -12397,7 +12398,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>43009</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>213</v>
@@ -12445,7 +12446,7 @@
         <v>42927</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>48</v>
@@ -12465,7 +12466,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>43040</v>
       </c>
@@ -12485,7 +12486,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>43070</v>
       </c>
@@ -12505,7 +12506,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="48" t="s">
         <v>246</v>
       </c>
@@ -12527,7 +12528,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>43101</v>
       </c>
@@ -12553,7 +12554,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>43132</v>
       </c>
@@ -12579,7 +12580,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>50</v>
@@ -12601,7 +12602,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>138</v>
@@ -12621,7 +12622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>43160</v>
       </c>
@@ -12641,7 +12642,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>43191</v>
       </c>
@@ -12661,7 +12662,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>43221</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>138</v>
@@ -12707,7 +12708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>50</v>
@@ -12729,7 +12730,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>43252</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -12775,7 +12776,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>43282</v>
       </c>
@@ -12799,7 +12800,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>43313</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>43344</v>
       </c>
@@ -12845,7 +12846,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>43374</v>
       </c>
@@ -12865,7 +12866,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>43405</v>
       </c>
@@ -12891,7 +12892,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>43435</v>
       </c>
@@ -12917,7 +12918,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="48" t="s">
         <v>245</v>
       </c>
@@ -12939,7 +12940,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>43466</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>43497</v>
       </c>
@@ -12985,7 +12986,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>43525</v>
       </c>
@@ -13011,7 +13012,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>43556</v>
       </c>
@@ -13037,7 +13038,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -13059,7 +13060,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>43586</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>43617</v>
       </c>
@@ -13105,7 +13106,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>43647</v>
       </c>
@@ -13125,7 +13126,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>43678</v>
       </c>
@@ -13145,7 +13146,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>43709</v>
       </c>
@@ -13169,7 +13170,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>54</v>
@@ -13191,7 +13192,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43739</v>
       </c>
@@ -13211,7 +13212,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>43770</v>
       </c>
@@ -13231,7 +13232,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>43800</v>
       </c>
@@ -13257,7 +13258,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="48" t="s">
         <v>244</v>
       </c>
@@ -13279,7 +13280,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>43831</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>43862</v>
       </c>
@@ -13325,7 +13326,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>43891</v>
       </c>
@@ -13345,7 +13346,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>43922</v>
       </c>
@@ -13371,7 +13372,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>43952</v>
       </c>
@@ -13395,7 +13396,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>43983</v>
       </c>
@@ -13415,7 +13416,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>44013</v>
       </c>
@@ -13435,7 +13436,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>44044</v>
       </c>
@@ -13455,7 +13456,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>44075</v>
       </c>
@@ -13475,7 +13476,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>44105</v>
       </c>
@@ -13495,7 +13496,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>44136</v>
       </c>
@@ -13515,7 +13516,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>44166</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>138</v>
@@ -13561,7 +13562,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>123</v>
@@ -13581,7 +13582,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="48" t="s">
         <v>243</v>
       </c>
@@ -13603,7 +13604,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>44197</v>
       </c>
@@ -13623,7 +13624,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>44228</v>
       </c>
@@ -13643,7 +13644,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>44256</v>
       </c>
@@ -13663,7 +13664,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>44287</v>
       </c>
@@ -13687,7 +13688,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>44317</v>
       </c>
@@ -13707,7 +13708,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>44348</v>
       </c>
@@ -13727,7 +13728,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>44378</v>
       </c>
@@ -13747,7 +13748,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>44409</v>
       </c>
@@ -13773,7 +13774,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>44440</v>
       </c>
@@ -13793,7 +13794,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44470</v>
       </c>
@@ -13813,7 +13814,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>44501</v>
       </c>
@@ -13837,7 +13838,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>51</v>
@@ -13859,7 +13860,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>44531</v>
       </c>
@@ -13883,7 +13884,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="48" t="s">
         <v>242</v>
       </c>
@@ -13905,7 +13906,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>44562</v>
       </c>
@@ -13929,7 +13930,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>60</v>
@@ -13949,7 +13950,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44593</v>
       </c>
@@ -13975,7 +13976,7 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>44621</v>
       </c>
@@ -13995,7 +13996,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>44652</v>
       </c>
@@ -14015,7 +14016,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44682</v>
       </c>
@@ -14039,7 +14040,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>131</v>
@@ -14061,7 +14062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>290</v>
@@ -14083,7 +14084,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>44713</v>
       </c>
@@ -14103,7 +14104,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44743</v>
       </c>
@@ -14129,7 +14130,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>54</v>
@@ -14151,7 +14152,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>54</v>
@@ -14173,7 +14174,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -14195,7 +14196,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>44774</v>
       </c>
@@ -14221,7 +14222,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>48</v>
@@ -14243,7 +14244,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>44805</v>
       </c>
@@ -14269,7 +14270,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>44835</v>
       </c>
@@ -14289,7 +14290,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>44866</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>131</v>
@@ -14337,7 +14338,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>54</v>
@@ -14359,7 +14360,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44896</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="48" t="s">
         <v>289</v>
       </c>
@@ -14403,7 +14404,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44927</v>
       </c>
@@ -14427,7 +14428,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44958</v>
       </c>
@@ -14447,22 +14448,24 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44986</v>
       </c>
       <c r="B481" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C481" s="13"/>
+      <c r="C481" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D481" s="39">
         <v>10</v>
       </c>
       <c r="E481" s="9"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G481" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H481" s="39"/>
       <c r="I481" s="9"/>
@@ -14471,11 +14474,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A482" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B482" s="20"/>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="40"/>
+      <c r="B482" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C482" s="13"/>
       <c r="D482" s="39"/>
       <c r="E482" s="9"/>
@@ -14487,11 +14490,13 @@
       <c r="H482" s="39"/>
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
-      <c r="K482" s="20"/>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K482" s="49">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14507,9 +14512,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14525,9 +14530,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14543,9 +14548,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14561,9 +14566,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14579,9 +14584,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14597,9 +14602,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14615,9 +14620,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14633,9 +14638,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14651,9 +14656,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14669,9 +14674,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14687,9 +14692,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14705,9 +14710,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14723,9 +14728,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14741,9 +14746,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14759,9 +14764,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14777,9 +14782,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14795,9 +14800,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14813,9 +14818,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14831,9 +14836,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14849,9 +14854,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14867,9 +14872,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14885,9 +14890,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14903,9 +14908,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14921,9 +14926,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14939,9 +14944,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14957,9 +14962,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14975,9 +14980,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14993,9 +14998,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15011,9 +15016,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15029,9 +15034,9 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15047,9 +15052,9 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15065,9 +15070,9 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15083,9 +15088,9 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15101,9 +15106,9 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15119,9 +15124,9 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15137,9 +15142,9 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15155,9 +15160,9 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15173,9 +15178,9 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15191,9 +15196,9 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15209,9 +15214,9 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15227,9 +15232,9 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15245,9 +15250,9 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15263,9 +15268,9 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15281,9 +15286,9 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15299,9 +15304,9 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15317,9 +15322,9 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15335,9 +15340,9 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15353,9 +15358,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15371,9 +15376,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15389,9 +15394,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15407,9 +15412,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15425,9 +15430,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15443,9 +15448,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15461,9 +15466,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15479,9 +15484,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15497,9 +15502,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15515,9 +15520,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15533,9 +15538,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15551,9 +15556,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15569,9 +15574,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15587,9 +15592,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15605,9 +15610,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15623,9 +15628,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15641,9 +15646,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15659,9 +15664,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15677,9 +15682,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15695,9 +15700,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15713,9 +15718,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15731,9 +15736,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15749,9 +15754,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15767,9 +15772,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15785,9 +15790,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15803,9 +15808,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15821,9 +15826,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15839,9 +15844,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15857,9 +15862,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15875,9 +15880,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15893,8 +15898,10 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40"/>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A561" s="40">
+        <v>47392</v>
+      </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
       <c r="D561" s="39"/>
@@ -15909,7 +15916,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15925,7 +15932,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15941,7 +15948,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15957,7 +15964,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15973,7 +15980,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15989,7 +15996,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16005,7 +16012,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16021,7 +16028,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16037,7 +16044,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16053,7 +16060,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16069,7 +16076,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16085,7 +16092,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16101,7 +16108,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16117,7 +16124,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16133,7 +16140,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16149,7 +16156,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16165,7 +16172,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16181,7 +16188,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16197,7 +16204,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16213,7 +16220,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16229,7 +16236,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16245,7 +16252,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16261,7 +16268,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16277,7 +16284,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16293,7 +16300,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16309,7 +16316,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16325,7 +16332,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16341,7 +16348,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16357,7 +16364,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16373,7 +16380,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16389,7 +16396,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16405,7 +16412,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16421,7 +16428,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16437,7 +16444,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16453,21 +16460,37 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="41"/>
-      <c r="B596" s="15"/>
-      <c r="C596" s="42"/>
-      <c r="D596" s="43"/>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A596" s="40"/>
+      <c r="B596" s="20"/>
+      <c r="C596" s="13"/>
+      <c r="D596" s="39"/>
       <c r="E596" s="9"/>
-      <c r="F596" s="15"/>
-      <c r="G596" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H596" s="43"/>
+      <c r="F596" s="20"/>
+      <c r="G596" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="39"/>
       <c r="I596" s="9"/>
-      <c r="J596" s="12"/>
-      <c r="K596" s="15"/>
+      <c r="J596" s="11"/>
+      <c r="K596" s="20"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A597" s="41"/>
+      <c r="B597" s="15"/>
+      <c r="C597" s="42"/>
+      <c r="D597" s="43"/>
+      <c r="E597" s="9"/>
+      <c r="F597" s="15"/>
+      <c r="G597" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H597" s="43"/>
+      <c r="I597" s="9"/>
+      <c r="J597" s="12"/>
+      <c r="K597" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16484,10 +16507,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16510,29 +16533,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16545,7 +16568,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16574,7 +16597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -16602,17 +16625,17 @@
         <v>0.45799999999999985</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>296</v>
       </c>
@@ -16636,10 +16659,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>480.66799999999995</v>
+        <v>483.16799999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16667,7 +16690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16693,7 +16716,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16719,7 +16742,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16745,7 +16768,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16771,7 +16794,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16797,7 +16820,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16823,7 +16846,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16849,7 +16872,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16869,7 +16892,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16889,7 +16912,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16909,7 +16932,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16930,7 +16953,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16951,7 +16974,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16972,7 +16995,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16993,7 +17016,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17014,7 +17037,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17035,7 +17058,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17056,7 +17079,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17077,7 +17100,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17098,7 +17121,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17119,7 +17142,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17140,7 +17163,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17161,7 +17184,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17182,7 +17205,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17203,7 +17226,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17224,7 +17247,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17245,7 +17268,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17266,7 +17289,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17287,7 +17310,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17308,7 +17331,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17329,7 +17352,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17338,7 +17361,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17347,7 +17370,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17356,7 +17379,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17365,7 +17388,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17374,7 +17397,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17383,7 +17406,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17392,7 +17415,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17401,7 +17424,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17410,7 +17433,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17419,7 +17442,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17428,7 +17451,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17437,7 +17460,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17446,7 +17469,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17455,7 +17478,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17464,7 +17487,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17473,7 +17496,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17482,7 +17505,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17491,7 +17514,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17500,7 +17523,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17509,7 +17532,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17518,7 +17541,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17527,7 +17550,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17536,7 +17559,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17545,7 +17568,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17554,7 +17577,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17563,7 +17586,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17572,7 +17595,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17581,7 +17604,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17590,7 +17613,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/SUSA, NANETTE B..xlsx
+++ b/REGULAR/OJT/NEW DONE/SUSA, NANETTE B..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1EFD9-F488-439C-9A6B-D14E8C15D74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FE467-E502-4844-A6DB-608CEA73A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3718,7 +3718,7 @@
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane ySplit="3852" topLeftCell="A478" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="E483" sqref="E483"/>
+      <selection pane="bottomLeft" activeCell="H484" sqref="H484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3895,7 +3895,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>306.45799999999997</v>
+        <v>305.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14498,7 +14498,9 @@
       <c r="A483" s="40">
         <v>45017</v>
       </c>
-      <c r="B483" s="20"/>
+      <c r="B483" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C483" s="13"/>
       <c r="D483" s="39"/>
       <c r="E483" s="9"/>
@@ -14507,10 +14509,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H483" s="39"/>
+      <c r="H483" s="39">
+        <v>1</v>
+      </c>
       <c r="I483" s="9"/>
       <c r="J483" s="11"/>
-      <c r="K483" s="20"/>
+      <c r="K483" s="49">
+        <v>45036</v>
+      </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
@@ -16662,7 +16668,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>483.16799999999995</v>
+        <v>482.16799999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
